--- a/data_processed/20250813/BTCUSDVOLSURFACE_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDVOLSURFACE_20250813.xlsx
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40764,7 +40764,7 @@
       </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40818,7 +40818,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40901,7 +40901,7 @@
       </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41013,7 +41013,7 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41287,7 +41287,7 @@
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41507,7 +41507,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41565,7 +41565,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41619,7 +41619,7 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41673,7 +41673,7 @@
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41756,7 +41756,7 @@
       </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250813/BTCUSDVOLSURFACE_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDVOLSURFACE_20250813.xlsx
@@ -44829,7 +44829,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
